--- a/data/hotels_by_city/Houston/Houston_shard_264.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_264.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d277876-Reviews-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Houston-Deer-Park.h915634.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2396 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r591762962-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>277876</t>
+  </si>
+  <si>
+    <t>591762962</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice hotel option so close to baseball tournament in dear park.  Clean and somewhat reasonable price.  Breakfast with waffles- kids loved that.  Clean rooms.  Nice staff.  Don’t expect 5 star, but if you need a bed in dear park, this will work.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel option so close to baseball tournament in dear park.  Clean and somewhat reasonable price.  Breakfast with waffles- kids loved that.  Clean rooms.  Nice staff.  Don’t expect 5 star, but if you need a bed in dear park, this will work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r589171037-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>589171037</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>1968 Class Reunion</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and concerned about any needs.  Asking how they could help.  We had one classmate that became ill and they were very compassionate.  Food was good and hotel very clean. Thanks for your part in making our 50 year Class Reunion special.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and concerned about any needs.  Asking how they could help.  We had one classmate that became ill and they were very compassionate.  Food was good and hotel very clean. Thanks for your part in making our 50 year Class Reunion special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r572153400-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>572153400</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Breakfast, hope you don't need Internet though</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable, enjoyed a large breakfast selection with different choices daily.  However Ethernet connection did not work in room and had to rely on a spotty WIFI connection, if you are trying to work from your hotel room and need internet, try somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable, enjoyed a large breakfast selection with different choices daily.  However Ethernet connection did not work in room and had to rely on a spotty WIFI connection, if you are trying to work from your hotel room and need internet, try somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r554373420-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>554373420</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Clean, Quiet Stay</t>
+  </si>
+  <si>
+    <t>The hotel is very quiet. The beds are firm yet cozy. The bathroom lighting is fantastic! The "free" breakfast wasn't up to Hilton-chain standards. If you want a waffle or cereal, you are in good shape. However, the hot breakfast items were not good. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is very quiet. The beds are firm yet cozy. The bathroom lighting is fantastic! The "free" breakfast wasn't up to Hilton-chain standards. If you want a waffle or cereal, you are in good shape. However, the hot breakfast items were not good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r553410727-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>553410727</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Hilton Property near the work site</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel; everything I would expect from a Hampton Inn. Well kept, good price for the stay, found a lot of decent dining close to the hotel. Plenty of floor space in the rooms, good size TV's, would/will stay here again when I return,MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel; everything I would expect from a Hampton Inn. Well kept, good price for the stay, found a lot of decent dining close to the hotel. Plenty of floor space in the rooms, good size TV's, would/will stay here again when I return,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r541053526-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>541053526</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Extremely professional &amp; helpful staff!</t>
+  </si>
+  <si>
+    <t>The staff at Hampton Inn, Deer Park, TX, were extremely helpful, friendly, caring, and professional.  Debbie and Myra were instrumental in making our stay a pleasant one! The room was very comfortable and the breakfast sufficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>The staff at Hampton Inn, Deer Park, TX, were extremely helpful, friendly, caring, and professional.  Debbie and Myra were instrumental in making our stay a pleasant one! The room was very comfortable and the breakfast sufficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r506952680-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>506952680</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here - AC is Terrible</t>
+  </si>
+  <si>
+    <t>This hotel is more interested in costs than guest comfort.  AC unit is loud and is controlled to not allow continuous fan - so room never cools.  You are awakened throughout the night by the AC turning on and off.  There are many hotel selections nearby that would be better choices.  Our group had 5 rooms and none of us would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is more interested in costs than guest comfort.  AC unit is loud and is controlled to not allow continuous fan - so room never cools.  You are awakened throughout the night by the AC turning on and off.  There are many hotel selections nearby that would be better choices.  Our group had 5 rooms and none of us would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r506718019-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>506718019</t>
+  </si>
+  <si>
+    <t>I have always have a good experience</t>
+  </si>
+  <si>
+    <t>I always say they could upgrade the breakfast area more. This location didn't have vending machines either. So you had to go down stairs for treats. The pool area  was top notch.    everything is always great,friendly,and clean.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I always say they could upgrade the breakfast area more. This location didn't have vending machines either. So you had to go down stairs for treats. The pool area  was top notch.    everything is always great,friendly,and clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r498870568-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>498870568</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>A good night stay</t>
+  </si>
+  <si>
+    <t>The staff was good as was the hotel.  There are a few food places you can walk to, but nothing spectacular.  The hotel is conveniently located near the Battleship Texas and the Johnson Space Center. Traffic in the area was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>The staff was good as was the hotel.  There are a few food places you can walk to, but nothing spectacular.  The hotel is conveniently located near the Battleship Texas and the Johnson Space Center. Traffic in the area was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r494907714-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>494907714</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>The hotel and staff were great. Very clean hotel. Pool was great. Beds too hard for us. Overall though, the hotel was great except for the comfort of the beds, they were good beds, just too hard. No bathroom vent.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel and staff were great. Very clean hotel. Pool was great. Beds too hard for us. Overall though, the hotel was great except for the comfort of the beds, they were good beds, just too hard. No bathroom vent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r487120277-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>487120277</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We have used this hotel on several occasions in the last five years. Each time we receive excellent service from the time of arrival to the departure. In the recent stay I asked for a room on the first floor. With none available for the type of room I had reserved, they upgraded me to a junior suite. They absolutely didn't have to accommodate my request.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>We have used this hotel on several occasions in the last five years. Each time we receive excellent service from the time of arrival to the departure. In the recent stay I asked for a room on the first floor. With none available for the type of room I had reserved, they upgraded me to a junior suite. They absolutely didn't have to accommodate my request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r481101974-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>481101974</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Convenient to eateries. Very quiet, pleasant. Would definitely staff here again when in time. Housekeeping was GREAT</t>
+  </si>
+  <si>
+    <t>Staff was nice.  The only problem encountered if you showered too long, water would get cold. Convenient to eateries. Good location. Very quiet, pleasant.  Rooms spacious, housekeeping kept rooms clean and tidy. Staff was nice and willing to provide good service. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>David D, Guest Relations Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Staff was nice.  The only problem encountered if you showered too long, water would get cold. Convenient to eateries. Good location. Very quiet, pleasant.  Rooms spacious, housekeeping kept rooms clean and tidy. Staff was nice and willing to provide good service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r476297904-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>476297904</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Clean rooms, good location, and great service.  I recommend this hotel for any trip, great quality  i'll stay in this hotel if i have to come back to this area.  Or another hampton anywhere..good service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, good location, and great service.  I recommend this hotel for any trip, great quality  i'll stay in this hotel if i have to come back to this area.  Or another hampton anywhere..good service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r473276792-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>473276792</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I stayed here for an interview, so the room was paid for. Check in was easy, didn't travel as a Honors member this trip, so missed my waters and such. Room was decent, but the hotel seemed older. Got a quiet night's sleep in a comfy bed. Standard toiletries, nothing fancy. TV did not work, so I just read and watched Netflix on my phone. Overall, it's fine to crash for a night. Area felt safe, just not a lot going on--mostly people on travel to the refineries on the ship channel, as evidenced when I ate breakfast at 6 AM.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for an interview, so the room was paid for. Check in was easy, didn't travel as a Honors member this trip, so missed my waters and such. Room was decent, but the hotel seemed older. Got a quiet night's sleep in a comfy bed. Standard toiletries, nothing fancy. TV did not work, so I just read and watched Netflix on my phone. Overall, it's fine to crash for a night. Area felt safe, just not a lot going on--mostly people on travel to the refineries on the ship channel, as evidenced when I ate breakfast at 6 AM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r472725975-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>472725975</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok but not the best Hampton </t>
+  </si>
+  <si>
+    <t>First I like to stay at Hilton brand hotels when I can.  So I was in Deer Park for a party.  This Hampton was just average.  It had a funny smell to it.  In the lobby and in the rooms.  I actually had to burn a candle in my room to help with the smell.Once I got rid of the smell it was just like any other Hampton.The staff was very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>First I like to stay at Hilton brand hotels when I can.  So I was in Deer Park for a party.  This Hampton was just average.  It had a funny smell to it.  In the lobby and in the rooms.  I actually had to burn a candle in my room to help with the smell.Once I got rid of the smell it was just like any other Hampton.The staff was very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r467342633-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>467342633</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Awesome! I like this place!</t>
+  </si>
+  <si>
+    <t>I have recently visited again Houston for Business trip and stayed again in this hotel.This time I looks more better than my last visit. I got what I need here. I would recommend to try this hotel.Only think during my visit elevator was not working; and it was not a problem for me, at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>I have recently visited again Houston for Business trip and stayed again in this hotel.This time I looks more better than my last visit. I got what I need here. I would recommend to try this hotel.Only think during my visit elevator was not working; and it was not a problem for me, at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r460945807-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>460945807</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>In &amp; Out</t>
+  </si>
+  <si>
+    <t>Traveling by myself to an unfamiliar location can be a struggle but this experience was very pleasant. The staff was pleasant &amp; helpful, the room was clean &amp; comfortable, I slept as well as I do at home. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Traveling by myself to an unfamiliar location can be a struggle but this experience was very pleasant. The staff was pleasant &amp; helpful, the room was clean &amp; comfortable, I slept as well as I do at home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r460828488-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>460828488</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This was a great hotel close to where I was meeting great value.  Clean, close proximity, and great value.  I would definately stay at this location again.  I didn't remember my Hilton Honors number but they were able to find me.  Going the extra mile great staffMoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>This was a great hotel close to where I was meeting great value.  Clean, close proximity, and great value.  I would definately stay at this location again.  I didn't remember my Hilton Honors number but they were able to find me.  Going the extra mile great staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r458222988-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>458222988</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Quick Trip</t>
+  </si>
+  <si>
+    <t>I had to attend a funeral and didn't have the luxury of planning more than a couple of days in advance. The Super Bowl was in Houston that weekend. I was afraid rooms would not be available and prices would be inflated. I was happy to get a room at the usual price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>I had to attend a funeral and didn't have the luxury of planning more than a couple of days in advance. The Super Bowl was in Houston that weekend. I was afraid rooms would not be available and prices would be inflated. I was happy to get a room at the usual price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r444458472-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>444458472</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Ok hotel, close to the industrial area</t>
+  </si>
+  <si>
+    <t>convenient hotel, ok breakfast starting at 6:00, very close to the nearby industrial area (Shell f.i.). Rooms are spaciuos, mine was at third floor, but quite noisy from outside, but also from within the hotel due to wooden floors.Enough restautants in the nearby area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>convenient hotel, ok breakfast starting at 6:00, very close to the nearby industrial area (Shell f.i.). Rooms are spaciuos, mine was at third floor, but quite noisy from outside, but also from within the hotel due to wooden floors.Enough restautants in the nearby area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r441020373-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>441020373</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>This is the only hotel that I book for my visit with family. Choice of room is great. Booking through app is great. Clean and quiet. The shower was not strong enough but we kept our showers short. The bed was comfy and no issues with parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This is the only hotel that I book for my visit with family. Choice of room is great. Booking through app is great. Clean and quiet. The shower was not strong enough but we kept our showers short. The bed was comfy and no issues with parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r433123718-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>433123718</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business.  It was clean, quiet and comfortable.  The complimentary breakfast had a good selection of options, and there were several fast food and a couple of other decent restaurants nearby.  I felt safe there, and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business.  It was clean, quiet and comfortable.  The complimentary breakfast had a good selection of options, and there were several fast food and a couple of other decent restaurants nearby.  I felt safe there, and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r432553462-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>432553462</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Fabulous Sleep Quality - Fabulous Service</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was fantastic:  the beds; mattresses, linen, pillows - all of the highest quality.  The hotel provided us with best sleep we had in our month's travels throughout the States.The receptionist was very professional and extremely friendly.  I'm not sure if I can review the Deer Park Theatre group but in case - here's my review of them as well!  We saw "The Odd Couple" which was performed right next door to the Hampton Inn.  It was a brilliant show, with a lovely Thanksgiving dinner included. Do yourselves a favour - go and see them perform - it will enhance your stay in Deer Park.  We travelled from Australia to Deer Park, just to see this local performance.  We don't know anyone there - we just love supporting local theatre.  And this one was well worth the trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was fantastic:  the beds; mattresses, linen, pillows - all of the highest quality.  The hotel provided us with best sleep we had in our month's travels throughout the States.The receptionist was very professional and extremely friendly.  I'm not sure if I can review the Deer Park Theatre group but in case - here's my review of them as well!  We saw "The Odd Couple" which was performed right next door to the Hampton Inn.  It was a brilliant show, with a lovely Thanksgiving dinner included. Do yourselves a favour - go and see them perform - it will enhance your stay in Deer Park.  We travelled from Australia to Deer Park, just to see this local performance.  We don't know anyone there - we just love supporting local theatre.  And this one was well worth the trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r431038019-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>431038019</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean, good breakfast</t>
+  </si>
+  <si>
+    <t>Over the past 9 years, I have stayed at a few hotels in Deer Park on business.  I seem to always return to the Hampton Inn, though.  Clean hotel, quiet, decent size rooms and good breakfast. Staff is always helpful &amp; friendly. Prices are good.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Over the past 9 years, I have stayed at a few hotels in Deer Park on business.  I seem to always return to the Hampton Inn, though.  Clean hotel, quiet, decent size rooms and good breakfast. Staff is always helpful &amp; friendly. Prices are good.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r418952757-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>418952757</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Good Place</t>
+  </si>
+  <si>
+    <t>This is a good hotel, decent price and nice staff, rooms are nice and the property in general is well maintained. I would stay there again, just for business..….…….……….man 200 words min? you should cut it outMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>This is a good hotel, decent price and nice staff, rooms are nice and the property in general is well maintained. I would stay there again, just for business..….…….……….man 200 words min? you should cut it outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r410864502-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>410864502</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Just a night in Deer Park</t>
+  </si>
+  <si>
+    <t>Friendly staff and nice hotel which appears new, breakfast was ok. The rooms were nice and loved all the incidentals which were left in the bathroom. I like the fact they were brand name products. If I ever head to Deer Park Texas again I would definitely stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and nice hotel which appears new, breakfast was ok. The rooms were nice and loved all the incidentals which were left in the bathroom. I like the fact they were brand name products. If I ever head to Deer Park Texas again I would definitely stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r406436534-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>406436534</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Great stay at the Hampton</t>
+  </si>
+  <si>
+    <t>We really enjoyed our family vacation staying at the Hampton. The breakfast was excellent, the staff was friendly, and the pool was clean. We all enjoyed the room as well, it was clean and cozy! Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our family vacation staying at the Hampton. The breakfast was excellent, the staff was friendly, and the pool was clean. We all enjoyed the room as well, it was clean and cozy! Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r402565079-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>402565079</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>The staff at this location is very friendly and professional. My room was clean and fresh. The breakfast was very good. I would rate the hotel a A+ for cleanliness and great hospitality. I would recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this location is very friendly and professional. My room was clean and fresh. The breakfast was very good. I would rate the hotel a A+ for cleanliness and great hospitality. I would recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r390656099-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>390656099</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>One of the BEST Hampton Inns</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was one of the best we have ever stayed in.  Staff was GREAT!!  Room was ready upon arrival and exceeded our expectations.  Complimentary breakfast was very well presented and the egg style changed each day.  The property was very clean and the staff showed pride in the property.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was one of the best we have ever stayed in.  Staff was GREAT!!  Room was ready upon arrival and exceeded our expectations.  Complimentary breakfast was very well presented and the egg style changed each day.  The property was very clean and the staff showed pride in the property.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r390287318-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>390287318</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Hampton Deer Park</t>
+  </si>
+  <si>
+    <t>Decently clean room, but beware if you have allergies.  Hotels should offer an alternative to goose down pillows.  Hypoallergenic pillows would have been nice instead of having to buy my own. Also, a/c unit in room was quite loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Decently clean room, but beware if you have allergies.  Hotels should offer an alternative to goose down pillows.  Hypoallergenic pillows would have been nice instead of having to buy my own. Also, a/c unit in room was quite loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r372749166-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>372749166</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>Two of us stayed on different floor and both got bitten by bed bugs. Mine kept me up itching that night; the other person in our group has bites all over her arms and legs.  We both need to make several more trips to this location and are hopeful they can clean up this problem in the next few weeks. Also, the pricing seemed to be very inconsistent.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Two of us stayed on different floor and both got bitten by bed bugs. Mine kept me up itching that night; the other person in our group has bites all over her arms and legs.  We both need to make several more trips to this location and are hopeful they can clean up this problem in the next few weeks. Also, the pricing seemed to be very inconsistent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r372234409-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>372234409</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Nothing went well</t>
+  </si>
+  <si>
+    <t>Power went out at only this property for several hours.  Staff was not equipped to deal with it. Breakfast in the morning the worst ever at a Hampton Inn. Total cut corners property. Will not stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Power went out at only this property for several hours.  Staff was not equipped to deal with it. Breakfast in the morning the worst ever at a Hampton Inn. Total cut corners property. Will not stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r367080077-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>367080077</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Deer Park Hamption</t>
+  </si>
+  <si>
+    <t>Good experience with one exception. Room 123 is not good due to close proximity to exercise room, and should perhaps be considered as not a guest room. Each morning as people would exercise, perhaps at 5am, I awoke and could not return to sleep because the running on the machine was very loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Good experience with one exception. Room 123 is not good due to close proximity to exercise room, and should perhaps be considered as not a guest room. Each morning as people would exercise, perhaps at 5am, I awoke and could not return to sleep because the running on the machine was very loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r357487494-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>357487494</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Hampton in Deer Park, TX.  It was close to the HASC, where I had classes.  Friendly staff and rooms with every amenity needed.  I highly recommend this Hampton by Hilton.  I will stay there again with no hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Hampton in Deer Park, TX.  It was close to the HASC, where I had classes.  Friendly staff and rooms with every amenity needed.  I highly recommend this Hampton by Hilton.  I will stay there again with no hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r355447710-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>355447710</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>Nina, from Hampton Inn, Deer Park, TX, provided EXCELLENT customer service.  Was very accommodating in booking our family with an extra nights stay on such short notice.  I was in the area for a business trip/ Family trip during Spring Break and had only booked one night. I did not want to have my family relocate to another hotel.  Nina took her time in assisting me with making arrangements in setting up another nights stay, in the same room.  Hampton Inn, Deer Park, highly recommended.  **Thanks again  Nina!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Nina, from Hampton Inn, Deer Park, TX, provided EXCELLENT customer service.  Was very accommodating in booking our family with an extra nights stay on such short notice.  I was in the area for a business trip/ Family trip during Spring Break and had only booked one night. I did not want to have my family relocate to another hotel.  Nina took her time in assisting me with making arrangements in setting up another nights stay, in the same room.  Hampton Inn, Deer Park, highly recommended.  **Thanks again  Nina!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r350724628-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>350724628</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>BEYOND EXCELLENT</t>
+  </si>
+  <si>
+    <t>this hotel was excellent from the moment we arrived in the parking lot.it was not full and we were able to park up front. we arrived literally in the middle of shift change and the transition from one worker to the next was perfect, she was able to help us right away and without any confusion. we were able to do an early check in which worked out great. ROOM WAS GREAT NOTHING DIRTY. EVERYTHING WAS CLEAN SO WAS THE RESTROOM. WAS ABLE TO USE THE FITNESS CENTER AFTER 10, EVEN THOUGH I JUST NEEDED IT FOR THE SCALE. BREAKFAST WAS GREAT, ASIDE FROM BEING FREE :) AND IT WAS ABOUT 930 AND THEY STILL HAD A VARIETY OF EVERYTHING AVAILABLE. HOTEL AND HOSPITALITY WERE GREAT!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>this hotel was excellent from the moment we arrived in the parking lot.it was not full and we were able to park up front. we arrived literally in the middle of shift change and the transition from one worker to the next was perfect, she was able to help us right away and without any confusion. we were able to do an early check in which worked out great. ROOM WAS GREAT NOTHING DIRTY. EVERYTHING WAS CLEAN SO WAS THE RESTROOM. WAS ABLE TO USE THE FITNESS CENTER AFTER 10, EVEN THOUGH I JUST NEEDED IT FOR THE SCALE. BREAKFAST WAS GREAT, ASIDE FROM BEING FREE :) AND IT WAS ABOUT 930 AND THEY STILL HAD A VARIETY OF EVERYTHING AVAILABLE. HOTEL AND HOSPITALITY WERE GREAT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r330266665-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>330266665</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel Stay</t>
+  </si>
+  <si>
+    <t>Average Hotel. A decent value for the money. The complimentary breakfast could use some help but overall an uneventful experience. The decor was  nice for the holiday but the lobby and kitchen were all in one room, which felt a little cramped.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Average Hotel. A decent value for the money. The complimentary breakfast could use some help but overall an uneventful experience. The decor was  nice for the holiday but the lobby and kitchen were all in one room, which felt a little cramped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r325056972-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>325056972</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Day trip</t>
+  </si>
+  <si>
+    <t>The room was very clean and neat. The front desk lady was nice, helpful and attentive. The hallways needed some frebreeze but not a big deal. A severe storm had passed through she made sure our stay was comfortable. Will be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>The room was very clean and neat. The front desk lady was nice, helpful and attentive. The hallways needed some frebreeze but not a big deal. A severe storm had passed through she made sure our stay was comfortable. Will be staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r319217617-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>319217617</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Great experience for tired travelers</t>
+  </si>
+  <si>
+    <t>Staff is very professional, helpful, and warm.  They made me feel as if I was a special guest.  BRAVO Hampton!  Room was spotless, quiet, well-heated/cooled.  Bathroom was also spotless.  Housekeeping staff was right on the ball.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Staff is very professional, helpful, and warm.  They made me feel as if I was a special guest.  BRAVO Hampton!  Room was spotless, quiet, well-heated/cooled.  Bathroom was also spotless.  Housekeeping staff was right on the ball.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r312059928-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>312059928</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Great stay --  added plus was their shuttle service to nearby Concorde Banquets</t>
+  </si>
+  <si>
+    <t>We were invited to a wedding reception at the Concorde Banquet facility.  We took advantage of a block of rooms reserved at the Hampton Inn.   The rooms are spacious, quiet, very comfortable beds and all the amenities we needed.  The complimentary breakfast the next morning was very tasty -- with scrambled eggs, oatmeal, waffles, pastries, fresh fruit, juices, tasty coffee = plus cold cereals, toast, etc.  The complimentary shuttle service to the reception facility was efficient and a "plus" for all those who stayed there.  I would certainly recommend this Hampton Inn. The price was reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>We were invited to a wedding reception at the Concorde Banquet facility.  We took advantage of a block of rooms reserved at the Hampton Inn.   The rooms are spacious, quiet, very comfortable beds and all the amenities we needed.  The complimentary breakfast the next morning was very tasty -- with scrambled eggs, oatmeal, waffles, pastries, fresh fruit, juices, tasty coffee = plus cold cereals, toast, etc.  The complimentary shuttle service to the reception facility was efficient and a "plus" for all those who stayed there.  I would certainly recommend this Hampton Inn. The price was reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r312253697-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>312253697</t>
+  </si>
+  <si>
+    <t>Very enjoyable</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business reasons, but I would definitely stay here for personal reasons as well. The rooms were clean, comfortable, and the staff was courteous and helpful. Easy access, quiet and very enjoyable. Would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business reasons, but I would definitely stay here for personal reasons as well. The rooms were clean, comfortable, and the staff was courteous and helpful. Easy access, quiet and very enjoyable. Would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r309422866-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>309422866</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Hardness of King Bed</t>
+  </si>
+  <si>
+    <t>Sorry to say the bed was tooooo hard. Service and employees were wonderful and professional. Scrambled eggs should be every day, not just the weekend.  They are a better choice of eggs that are featured.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Sorry to say the bed was tooooo hard. Service and employees were wonderful and professional. Scrambled eggs should be every day, not just the weekend.  They are a better choice of eggs that are featured.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r297773171-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>297773171</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Great For Business</t>
+  </si>
+  <si>
+    <t>Quiet, comfy, nice breakfast, free wifi, nice exercise facility, great for attending class, courteous staff. Really liked that the air conditioner has a continuous fan setting to be able to have the white noise, but not freeze myself silly through the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Quiet, comfy, nice breakfast, free wifi, nice exercise facility, great for attending class, courteous staff. Really liked that the air conditioner has a continuous fan setting to be able to have the white noise, but not freeze myself silly through the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r285157695-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>285157695</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfy </t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights in June with my husband. Rooms are nice size and super clean. Breakfast was pretty good. Selection good for a hotel break. Choices between hot and cold dishes. Staff was friendly and always greeted us as we came and went. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights in June with my husband. Rooms are nice size and super clean. Breakfast was pretty good. Selection good for a hotel break. Choices between hot and cold dishes. Staff was friendly and always greeted us as we came and went. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r283110876-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>283110876</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel in good location</t>
+  </si>
+  <si>
+    <t>I stayed here for one night after driving over from Kerrville. I needed somewhere close to the San Jacinto Moniment and Battleship Texas. This hotel was good. The room was spacious and clean and the reception staff were welcoming and helpful. It's just off the 225 so it's easy to get to. The free buffet breakfast was pretty good and set me up for the day. The WiFi worked fine all over the hotel. I would have no hesitation in recommending this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for one night after driving over from Kerrville. I needed somewhere close to the San Jacinto Moniment and Battleship Texas. This hotel was good. The room was spacious and clean and the reception staff were welcoming and helpful. It's just off the 225 so it's easy to get to. The free buffet breakfast was pretty good and set me up for the day. The WiFi worked fine all over the hotel. I would have no hesitation in recommending this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r273113339-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>273113339</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>DIRTY</t>
+  </si>
+  <si>
+    <t>The carpet was gross, I wore shoes the whole time I didn't have my feet in the bed.  The shower curtain hadn't been washed in months, it was supposed to be white, and was actually orange from filth.  The toilet had pubic hair on it THAT WASN'T mine.  The A/C was so loud and wouldn't stay a consistent temp.  GROSS!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>The carpet was gross, I wore shoes the whole time I didn't have my feet in the bed.  The shower curtain hadn't been washed in months, it was supposed to be white, and was actually orange from filth.  The toilet had pubic hair on it THAT WASN'T mine.  The A/C was so loud and wouldn't stay a consistent temp.  GROSS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r273239721-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>273239721</t>
+  </si>
+  <si>
+    <t>Very good hotel</t>
+  </si>
+  <si>
+    <t>The hot breakfast was fantastic.  We stayed 3 nights and the breakfast had different things each morning and good variety.  The elevator was slow and always had a funky smell to it but that was about the only negative I can say about the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hot breakfast was fantastic.  We stayed 3 nights and the breakfast had different things each morning and good variety.  The elevator was slow and always had a funky smell to it but that was about the only negative I can say about the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r270865860-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>270865860</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Clean and comfortable hotel.  Good Expirence.  Did not take advantage of all the ammenities, but the room was nice and would stay here again if in the area.  Easy access to freeway and is in a good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable hotel.  Good Expirence.  Did not take advantage of all the ammenities, but the room was nice and would stay here again if in the area.  Easy access to freeway and is in a good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r268446182-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>268446182</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Always a pleasure</t>
+  </si>
+  <si>
+    <t>Hampton Inn properties are always pleasant in terms of staff and rooms are clean, comfortable and just what are needed for a 1-2 night or 1-2 week stay. Ok, might seem a little long for 1-2 weeks, but they are great for my short term stay needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Hampton Inn properties are always pleasant in terms of staff and rooms are clean, comfortable and just what are needed for a 1-2 night or 1-2 week stay. Ok, might seem a little long for 1-2 weeks, but they are great for my short term stay needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r263007617-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>263007617</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Slow internet and low water pressure</t>
+  </si>
+  <si>
+    <t>The internet speed was very slow. I used the hot spot on my mobile phone and had faster internet. The water pressure in the bathroom was so low I had to stand directly under the shower head. The breakfast was okay, but you figure what this hotel costs per night they would have a better breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>The internet speed was very slow. I used the hot spot on my mobile phone and had faster internet. The water pressure in the bathroom was so low I had to stand directly under the shower head. The breakfast was okay, but you figure what this hotel costs per night they would have a better breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r260989878-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>260989878</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Front Desk Clerk</t>
+  </si>
+  <si>
+    <t>We met one of the very best desk clerks from our many years of travel.  The young lady printed maps and explained in great detail how to complete our trip and where to dine.  She was spot on in her suggestion. The word "Helpful" does not adequately describe this young lady.MoreShow less</t>
+  </si>
+  <si>
+    <t>We met one of the very best desk clerks from our many years of travel.  The young lady printed maps and explained in great detail how to complete our trip and where to dine.  She was spot on in her suggestion. The word "Helpful" does not adequately describe this young lady.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r258701736-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>258701736</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Tour the USS Texas</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is very close to the USS Texas Battleship. We had a relaxing night and a very good breakfast before we toured the battleship and monument in the park, ending the day at a nice restaurant, referred by Hampton, which overlooks the river channel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is very close to the USS Texas Battleship. We had a relaxing night and a very good breakfast before we toured the battleship and monument in the park, ending the day at a nice restaurant, referred by Hampton, which overlooks the river channel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r256062453-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>256062453</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Beware of Air Miles Points</t>
+  </si>
+  <si>
+    <t>This is not a review of the hotel itself. The majority of reviews suggest this hotel is a very good place to stay. This is a cautionary tale if you are reserving through Air Miles or other travel reward points. Air Miles booked us into this hotel pre-cruise out of Bayport. One of the conditions we made was a hotel that had a shuttle service. The Air Miles rep said this hotel had a shuttle service. Okay, but when I looked at the location of the hotel in relation to IAH (and to a lesser extent the Bayport cruise port), I could not believe that they would have a shuttle service. I double checked and the hotel, in fact, does not provide a shuttle service. By all means stay at this hotel but be careful if you are reserving through a travel points group.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>This is not a review of the hotel itself. The majority of reviews suggest this hotel is a very good place to stay. This is a cautionary tale if you are reserving through Air Miles or other travel reward points. Air Miles booked us into this hotel pre-cruise out of Bayport. One of the conditions we made was a hotel that had a shuttle service. The Air Miles rep said this hotel had a shuttle service. Okay, but when I looked at the location of the hotel in relation to IAH (and to a lesser extent the Bayport cruise port), I could not believe that they would have a shuttle service. I double checked and the hotel, in fact, does not provide a shuttle service. By all means stay at this hotel but be careful if you are reserving through a travel points group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r256226955-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>256226955</t>
+  </si>
+  <si>
+    <t>Older Hotel Shows</t>
+  </si>
+  <si>
+    <t>Older facility.  Awkward smell by elevator off the lobby.  Very heavy smell that really struck me on arrival.  Staff was courteous and friendly.  Location was good for my needs.  Breakfast was typical but again staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Older facility.  Awkward smell by elevator off the lobby.  Very heavy smell that really struck me on arrival.  Staff was courteous and friendly.  Location was good for my needs.  Breakfast was typical but again staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r249072039-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>249072039</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Overall Good Experience</t>
+  </si>
+  <si>
+    <t>Hallway on 1st floor had a very foul odor.  Smelled like it was coming from the laundry/housekeeping area but could not be sure.  Since I stayed on 3rd floor the odor problem was not a problem other than entering and exiting the elevator for the building.  Otherwise it was a very satisfactory experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Hallway on 1st floor had a very foul odor.  Smelled like it was coming from the laundry/housekeeping area but could not be sure.  Since I stayed on 3rd floor the odor problem was not a problem other than entering and exiting the elevator for the building.  Otherwise it was a very satisfactory experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r248898762-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>248898762</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Hampton Hotel - Deer Park</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel with very friendly and helpful staff. Close to the freeway for easeof access to most places.  Free in-room Internet Access is a must when on business. There were no issues connecting and the connection remained consistent.  Wether you need help with internet access or require a recommendation to retaurants, the staff are friendly and willing to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel with very friendly and helpful staff. Close to the freeway for easeof access to most places.  Free in-room Internet Access is a must when on business. There were no issues connecting and the connection remained consistent.  Wether you need help with internet access or require a recommendation to retaurants, the staff are friendly and willing to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r248244097-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>248244097</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Clean rooms &amp; extremely comfortable beds. I traveled for a business visit in Deer Park &amp; this hotel is at really convenient place as long as my purpose is considered. Good breakfast. McDonald, Subway, etc in vicinity. Overall.... a pretty good hotel.Don't know why they require a credit card for checking in even when we are ready to pay full cash in advance !!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Clean rooms &amp; extremely comfortable beds. I traveled for a business visit in Deer Park &amp; this hotel is at really convenient place as long as my purpose is considered. Good breakfast. McDonald, Subway, etc in vicinity. Overall.... a pretty good hotel.Don't know why they require a credit card for checking in even when we are ready to pay full cash in advance !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r244493420-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>244493420</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Stay at Hampton Inn Deer Park, Tx</t>
+  </si>
+  <si>
+    <t>When I am in the Ship Channel area, this is the preferred hotel for me to stay at. It is located near work and not far from Kemah where there are a number of good restaurants. The staff here works hard to keep the hotel in good repair, the breakfast bar is good, and the people are friendly. Always a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>When I am in the Ship Channel area, this is the preferred hotel for me to stay at. It is located near work and not far from Kemah where there are a number of good restaurants. The staff here works hard to keep the hotel in good repair, the breakfast bar is good, and the people are friendly. Always a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r244357949-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>244357949</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Clean, adequate for overnight</t>
+  </si>
+  <si>
+    <t>Stayed one night prior to cruise. The hotel was clean, staff was pleasant, and the room was quiet. Nothing special about the place, but the price was reasonable and included breakfast and WiFi. The 2nd floor hallways had a musty smell, but the room was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night prior to cruise. The hotel was clean, staff was pleasant, and the room was quiet. Nothing special about the place, but the price was reasonable and included breakfast and WiFi. The 2nd floor hallways had a musty smell, but the room was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r240926489-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>240926489</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel.</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights whilst on business in Houston.  Lots of free parking, check in was quick and easy .  Staff were all very friendly.  The room was larger than average and well kitted out.  AC was noisy but I found this in all Hampton inn hotels i stayed inn.The breakfast's were average at best but filled a hole and there was plenty of places to eat if you wanted to go and eat out. Hotel has a gym and an outdoor swimming pool too, which is great to cool off in.  Check out was quick and easy as well and would recommend and stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights whilst on business in Houston.  Lots of free parking, check in was quick and easy .  Staff were all very friendly.  The room was larger than average and well kitted out.  AC was noisy but I found this in all Hampton inn hotels i stayed inn.The breakfast's were average at best but filled a hole and there was plenty of places to eat if you wanted to go and eat out. Hotel has a gym and an outdoor swimming pool too, which is great to cool off in.  Check out was quick and easy as well and would recommend and stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r238566445-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>238566445</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Why stay somewhere else</t>
+  </si>
+  <si>
+    <t>I always stay at Hampton Inn's for the quality and great service I receive. The beds are always very comfortable. The room's are clean and well maintained. Breakfast is always perfect, hot foods hot, cold foods cold and well stocked. The staff greet you like they care for the customer. No matter which Hampton I stay at from New York to Illinois to Texas. That's why I keep coming back. I know I have nothing to worry about. The only thing I don't like is the $10-$20 additional charge they put on the bill for unknown charges that I may make to my account. Then in 1-2 weeks the money is deposited back into my account.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>I always stay at Hampton Inn's for the quality and great service I receive. The beds are always very comfortable. The room's are clean and well maintained. Breakfast is always perfect, hot foods hot, cold foods cold and well stocked. The staff greet you like they care for the customer. No matter which Hampton I stay at from New York to Illinois to Texas. That's why I keep coming back. I know I have nothing to worry about. The only thing I don't like is the $10-$20 additional charge they put on the bill for unknown charges that I may make to my account. Then in 1-2 weeks the money is deposited back into my account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r236944410-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>236944410</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>I stayed here recently for one night on business. The staff was friendly and the rooms were clean and as expected. No problems here at all. The place is standard as far as Hampton Inns go so no need to worry here. If this is the area you have to be in, this is a great option.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here recently for one night on business. The staff was friendly and the rooms were clean and as expected. No problems here at all. The place is standard as far as Hampton Inns go so no need to worry here. If this is the area you have to be in, this is a great option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r236664084-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>236664084</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Deer Park TX</t>
+  </si>
+  <si>
+    <t>Very nice place to stay when in and around Baytown,Pasadena, Deer Park, LaPorte TX area!!  Everything is close by if doing business in the area and the staff is very helpful and friendly.  Lots of restaurants and accessible to the freeways and Sam Houston Tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Very nice place to stay when in and around Baytown,Pasadena, Deer Park, LaPorte TX area!!  Everything is close by if doing business in the area and the staff is very helpful and friendly.  Lots of restaurants and accessible to the freeways and Sam Houston Tollway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r233223061-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>233223061</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>First Stay</t>
+  </si>
+  <si>
+    <t>Hotel is new and in very good shape.  Only draw back is the odor in the lobby area.  It was offensive while in lobby area.  This included the eating area.  This needs to be addressed ASAP.  Everything else was very enjoyable.  The staff was helpful and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is new and in very good shape.  Only draw back is the odor in the lobby area.  It was offensive while in lobby area.  This included the eating area.  This needs to be addressed ASAP.  Everything else was very enjoyable.  The staff was helpful and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r229546748-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>229546748</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Sudden Stay</t>
+  </si>
+  <si>
+    <t>Thank goodness the Hampton was close to the funeral home and burial site we were in town for.  The cleanliness of the lobby, eating area, and room, was top of the line.  Everyone were very professional and friendly and made our visit that much easier.  Would definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>David D, Guest Relations Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Thank goodness the Hampton was close to the funeral home and burial site we were in town for.  The cleanliness of the lobby, eating area, and room, was top of the line.  Everyone were very professional and friendly and made our visit that much easier.  Would definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r222870752-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>222870752</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice staff, good breakfast</t>
+  </si>
+  <si>
+    <t>We were part of a wedding group of ten rooms. All the rooms were clean and comfortable - and near one another, as requested. The breakfast area was always clean. The food was good, replenished often and hot. One morning, they even made some plain eggs for us, since two of us couldn't have the ham that was mixed in.The pool was clean and we'll maintained. It was not over-chlorinated, as is often the case at hotels. The hot tub was comfortable, but maybe could be a bit hotter.The staff went out of their way to insure we all had a pleasant stay. Ask at the front desk about local places to eat - their recommendations were really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>We were part of a wedding group of ten rooms. All the rooms were clean and comfortable - and near one another, as requested. The breakfast area was always clean. The food was good, replenished often and hot. One morning, they even made some plain eggs for us, since two of us couldn't have the ham that was mixed in.The pool was clean and we'll maintained. It was not over-chlorinated, as is often the case at hotels. The hot tub was comfortable, but maybe could be a bit hotter.The staff went out of their way to insure we all had a pleasant stay. Ask at the front desk about local places to eat - their recommendations were really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r220469435-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>220469435</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Another perfect stay</t>
+  </si>
+  <si>
+    <t>Everything was great during iur week-long stay. Breakfast was awesome, the staff was friendly and kind, the room was great, the manager made a point to talk to us and learn our names.  We will stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Everything was great during iur week-long stay. Breakfast was awesome, the staff was friendly and kind, the room was great, the manager made a point to talk to us and learn our names.  We will stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r219914053-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>219914053</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>My husband went to deer park on business and my daughter and I tagged along.  The staff is very friendly and the breakfast never disappointed. They also put out little snacks in the late afternoon while was a nice treat. The room was very nice and appeared to have brand new furniture.  When I am in a hotel I don't like cleaning service and do it myself, but they did take my garbage for me and brought towels whenever I asked.If I go back to deer park, this will be my first choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My husband went to deer park on business and my daughter and I tagged along.  The staff is very friendly and the breakfast never disappointed. They also put out little snacks in the late afternoon while was a nice treat. The room was very nice and appeared to have brand new furniture.  When I am in a hotel I don't like cleaning service and do it myself, but they did take my garbage for me and brought towels whenever I asked.If I go back to deer park, this will be my first choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r213341302-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>213341302</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Ok place to stay</t>
+  </si>
+  <si>
+    <t>Bed is a traditional Hampton bed, comfortable.  Last two trips, the room has been less than clean.  Staff is friendly.  Wifi is a hit and miss.  Breakfast buffet is also traditional Hampton - not very good.  There was a couple or couples having a very good PRIVATE time in the next room (lots of noise for hours on end).  Hotel would not intervene or relocate to another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Bed is a traditional Hampton bed, comfortable.  Last two trips, the room has been less than clean.  Staff is friendly.  Wifi is a hit and miss.  Breakfast buffet is also traditional Hampton - not very good.  There was a couple or couples having a very good PRIVATE time in the next room (lots of noise for hours on end).  Hotel would not intervene or relocate to another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r210380996-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>210380996</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We stayed here because we were visiting San Jacinto battle ground &amp; monument. Didn't seem the best of locations though, although we had a lovely meal at a nearby italian. Didn't sleep well as we had a room on the ground floor near exit door, which banged many times. Also flood lights, kept the room well lit all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here because we were visiting San Jacinto battle ground &amp; monument. Didn't seem the best of locations though, although we had a lovely meal at a nearby italian. Didn't sleep well as we had a room on the ground floor near exit door, which banged many times. Also flood lights, kept the room well lit all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r205877899-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>205877899</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Daily Rate and Bill</t>
+  </si>
+  <si>
+    <t>When I booked with this hotel, the website said that the daily rate was $115 but the bill now says it was suppose to be $300 and my bill has doubled. I contacted the hotel but they will not reduce the price. I think this is fraudulent and if I had known that the room rate was this high then i would not have booked it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrea F, Guest Relations Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>When I booked with this hotel, the website said that the daily rate was $115 but the bill now says it was suppose to be $300 and my bill has doubled. I contacted the hotel but they will not reduce the price. I think this is fraudulent and if I had known that the room rate was this high then i would not have booked it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r205124175-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>205124175</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Kylie needs a BIG raise!</t>
+  </si>
+  <si>
+    <t>I got into town having been booked at this hotel by the Central reservation by mistake. I needed to be downtown in Houston for a conference and this hotel is miles outside with no easy access to transportation.Kylie, at the reception desk was simply wonderful in helping me with finding an alternative accommodation and arranging for a cab (not easy in Deer park). I am very appreciate of her professional service and calm demeanor. Many Thanks, Kylie!MoreShow less</t>
+  </si>
+  <si>
+    <t>I got into town having been booked at this hotel by the Central reservation by mistake. I needed to be downtown in Houston for a conference and this hotel is miles outside with no easy access to transportation.Kylie, at the reception desk was simply wonderful in helping me with finding an alternative accommodation and arranging for a cab (not easy in Deer park). I am very appreciate of her professional service and calm demeanor. Many Thanks, Kylie!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r203261081-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>203261081</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Hampton Excellence</t>
+  </si>
+  <si>
+    <t>The Hampton Inn is a consistently high quality hotel.  This experience was no different.  From reception to amenities to exit, the Hampton Inn never fails to meet my expectations.  The rooms are always clean and quiet and rest is easily achieved.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>The Hampton Inn is a consistently high quality hotel.  This experience was no different.  From reception to amenities to exit, the Hampton Inn never fails to meet my expectations.  The rooms are always clean and quiet and rest is easily achieved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r200298351-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>200298351</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Far from downtown</t>
+  </si>
+  <si>
+    <t>The hotel was really nice, clean and comfy. Is far from Downtown and other touristic areas. Although I liked the hotel, I'd probably stay near downtown the next leisure trip. The elevator was quite noisy and unstable. The hotel area is near to docks and is not a vacation hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was really nice, clean and comfy. Is far from Downtown and other touristic areas. Although I liked the hotel, I'd probably stay near downtown the next leisure trip. The elevator was quite noisy and unstable. The hotel area is near to docks and is not a vacation hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r200150863-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>200150863</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Great older Hampton</t>
+  </si>
+  <si>
+    <t>This is a business stay hotel. There is not a lot to do around the property so they have made up for the location by providing an excellent product. The hotel is an older Hampton Inn that has been refurbished and is very well maintained. Pricing for this hotel is very competitive.The staff at check in is very good and helpful giving out tips on local restaurants and business's. They make you feel very welcome and special. Rooms are well maintained and are stocked with more than the standard toiletries. Breakfast was far better than most Hampton's with a larger variety of hot entrees and better selections of other items than normally seen in this level of hotel. The staff again was very friendly and welcoming. I will definitely use this facility again when in this part of Houston it would even be worth going out of the way to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a business stay hotel. There is not a lot to do around the property so they have made up for the location by providing an excellent product. The hotel is an older Hampton Inn that has been refurbished and is very well maintained. Pricing for this hotel is very competitive.The staff at check in is very good and helpful giving out tips on local restaurants and business's. They make you feel very welcome and special. Rooms are well maintained and are stocked with more than the standard toiletries. Breakfast was far better than most Hampton's with a larger variety of hot entrees and better selections of other items than normally seen in this level of hotel. The staff again was very friendly and welcoming. I will definitely use this facility again when in this part of Houston it would even be worth going out of the way to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r194023817-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>194023817</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Hampton Inn</t>
+  </si>
+  <si>
+    <t>This was a business trip and I really enjoyed staying here.  There are newer places to stay in the Deer Park area but the for the value, a really good free breakfast and an extremely friendly staff made it great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>This was a business trip and I really enjoyed staying here.  There are newer places to stay in the Deer Park area but the for the value, a really good free breakfast and an extremely friendly staff made it great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r193942859-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>193942859</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Comfy Hotel</t>
+  </si>
+  <si>
+    <t>The staff is exceptional here. We needed to check in early, and they made it happen for us. Also, the staff was very friendly towards us, even with a small child running around. Staff made good recommendations for resturants in area and were easy to relate to. The hotel itself looks pristine and they keep itin great shape. Beds and pillows comfy. Room very clean. They were cleaning carpets in hallway when we arrived actually, and it was nice to know they actually cared about the carpets being professionally cleaned and not just vaccumed. Breakfast was good, hot food as well as traditional contiental fare. Would stay here again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is exceptional here. We needed to check in early, and they made it happen for us. Also, the staff was very friendly towards us, even with a small child running around. Staff made good recommendations for resturants in area and were easy to relate to. The hotel itself looks pristine and they keep itin great shape. Beds and pillows comfy. Room very clean. They were cleaning carpets in hallway when we arrived actually, and it was nice to know they actually cared about the carpets being professionally cleaned and not just vaccumed. Breakfast was good, hot food as well as traditional contiental fare. Would stay here again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r193737524-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>193737524</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Urine smell???</t>
+  </si>
+  <si>
+    <t>When I checked in, the credit card machine was not working.  The room smelled so strongly of urine that it was hard to notice anything else.  I couldn't ever find the source of the smell.  The night couldn't end soon enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded February 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2014</t>
+  </si>
+  <si>
+    <t>When I checked in, the credit card machine was not working.  The room smelled so strongly of urine that it was hard to notice anything else.  I couldn't ever find the source of the smell.  The night couldn't end soon enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r191839012-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>191839012</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Well-located for local industry access, ...</t>
+  </si>
+  <si>
+    <t>... this is otherwise a typical Hampton Inn.  As you should expect, the room was in top shape, and the service at check-in was very good.  This is a good place to stay if you plan a day at the San Jacinto Monument and the Battleship Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>... this is otherwise a typical Hampton Inn.  As you should expect, the room was in top shape, and the service at check-in was very good.  This is a good place to stay if you plan a day at the San Jacinto Monument and the Battleship Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r188973374-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>188973374</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Pre cruise hotel</t>
+  </si>
+  <si>
+    <t>If you are cruising out of the Port of Houston and arrive "the night before" to make sure weather does not ruin your cruise, this is a great place to stay. The staff is pleasant, continental breakfast includes omelets and sausage patties and the food serving area is spotless. If you need diner the night before the cruise, no problem; Jimmy's Changa, a great Mexican restaurant or Luby's Cafeteria is just down the road on Center street.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>David D, Guest Relations Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded January 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2014</t>
+  </si>
+  <si>
+    <t>If you are cruising out of the Port of Houston and arrive "the night before" to make sure weather does not ruin your cruise, this is a great place to stay. The staff is pleasant, continental breakfast includes omelets and sausage patties and the food serving area is spotless. If you need diner the night before the cruise, no problem; Jimmy's Changa, a great Mexican restaurant or Luby's Cafeteria is just down the road on Center street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r185036002-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>185036002</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>BEST RECEPTION RECEIVED AT A HOTEL</t>
+  </si>
+  <si>
+    <t>This particular Hampton Inn is the best we have ever received from any of your hotel's. Jennifer was very personable, informative in give directions and assisted us with an area map of Deer Park, TX. She is a super employee and is very personable !! All Hamptons should have a Jennifer on their staff !!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>This particular Hampton Inn is the best we have ever received from any of your hotel's. Jennifer was very personable, informative in give directions and assisted us with an area map of Deer Park, TX. She is a super employee and is very personable !! All Hamptons should have a Jennifer on their staff !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r183863923-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>183863923</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Deer Park Hampton very suitable option</t>
+  </si>
+  <si>
+    <t>Price was slightly better than others within a few minutes - and location seemed no less or more desirable for the area.   Breakfast options were adequate - but nothing exception.   Overall, I was very satisfied with the hotel, staff and services.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Price was slightly better than others within a few minutes - and location seemed no less or more desirable for the area.   Breakfast options were adequate - but nothing exception.   Overall, I was very satisfied with the hotel, staff and services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r182781686-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>182781686</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>This hotel was the best hotel I have ever been to. We were in town to see family. our family came to see us in the hotel and they were pleased with the hotel also. I can not wait to go back and stay there again. bravo Hampton Inn!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This hotel was the best hotel I have ever been to. We were in town to see family. our family came to see us in the hotel and they were pleased with the hotel also. I can not wait to go back and stay there again. bravo Hampton Inn!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r182307964-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>182307964</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Good stay in Deer Park</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times in the last few years. The service is consistently good and the rooms are clean. Although the fitness is limited, the quality of the equipment and cleanliness is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times in the last few years. The service is consistently good and the rooms are clean. Although the fitness is limited, the quality of the equipment and cleanliness is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r173596377-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>173596377</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Very Nice.</t>
+  </si>
+  <si>
+    <t>This was a very nice stay. The front desk staff was very attentive and funny. You definitely get what you pay for, just make sure you are willing to pay. I was on the corporate account, so this was not really an issue, but may be pricey for families. Overall, very nice and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>This was a very nice stay. The front desk staff was very attentive and funny. You definitely get what you pay for, just make sure you are willing to pay. I was on the corporate account, so this was not really an issue, but may be pricey for families. Overall, very nice and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r170384962-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>170384962</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Let Down..</t>
+  </si>
+  <si>
+    <t>When I started traveling for business I noticed our company Honeywell, provided numerous hotel chains that we were allowed to pick from in the Honeywell travel planner. Given our departments budget, we were able to pick better quality hotels then the other Honeywell departments. I started to pick different ones to try out, and weed out the undesirable ones. It came down to two chains, Marriott and Hilton. I ended up getting Gold status on both chains I traveled so much that first year. In the end of this test of mine, I chose to stay with one, the Hilton chain. The two reasons that made up my mind 1) The way they treated me because of the gold status. 2) The Marriott hotels were a hit and miss scenario all time with them. Sometimes I stayed at a real nice hotel, other times it felt like I was staying at a Motel...  I never stayed at a Hilton Hotel and felt that until this last stay. I can't put my finger on it, it could have been the area the Hotel was in or the feel of a nice hotel that was a little worn out and needs a little updating. The lack of guests during my stay that whole week gave me a hint that maybe the money is just not there to put into it. I will be going back to Pasadena, TX many times in the...When I started traveling for business I noticed our company Honeywell, provided numerous hotel chains that we were allowed to pick from in the Honeywell travel planner. Given our departments budget, we were able to pick better quality hotels then the other Honeywell departments. I started to pick different ones to try out, and weed out the undesirable ones. It came down to two chains, Marriott and Hilton. I ended up getting Gold status on both chains I traveled so much that first year. In the end of this test of mine, I chose to stay with one, the Hilton chain. The two reasons that made up my mind 1) The way they treated me because of the gold status. 2) The Marriott hotels were a hit and miss scenario all time with them. Sometimes I stayed at a real nice hotel, other times it felt like I was staying at a Motel...  I never stayed at a Hilton Hotel and felt that until this last stay. I can't put my finger on it, it could have been the area the Hotel was in or the feel of a nice hotel that was a little worn out and needs a little updating. The lack of guests during my stay that whole week gave me a hint that maybe the money is just not there to put into it. I will be going back to Pasadena, TX many times in the future due to the fact our office is located there, but I think I’m going to scout around for a different Hilton Hotel, even if it’s a little out of the way.   Faithfully, J.C. RojasMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>When I started traveling for business I noticed our company Honeywell, provided numerous hotel chains that we were allowed to pick from in the Honeywell travel planner. Given our departments budget, we were able to pick better quality hotels then the other Honeywell departments. I started to pick different ones to try out, and weed out the undesirable ones. It came down to two chains, Marriott and Hilton. I ended up getting Gold status on both chains I traveled so much that first year. In the end of this test of mine, I chose to stay with one, the Hilton chain. The two reasons that made up my mind 1) The way they treated me because of the gold status. 2) The Marriott hotels were a hit and miss scenario all time with them. Sometimes I stayed at a real nice hotel, other times it felt like I was staying at a Motel...  I never stayed at a Hilton Hotel and felt that until this last stay. I can't put my finger on it, it could have been the area the Hotel was in or the feel of a nice hotel that was a little worn out and needs a little updating. The lack of guests during my stay that whole week gave me a hint that maybe the money is just not there to put into it. I will be going back to Pasadena, TX many times in the...When I started traveling for business I noticed our company Honeywell, provided numerous hotel chains that we were allowed to pick from in the Honeywell travel planner. Given our departments budget, we were able to pick better quality hotels then the other Honeywell departments. I started to pick different ones to try out, and weed out the undesirable ones. It came down to two chains, Marriott and Hilton. I ended up getting Gold status on both chains I traveled so much that first year. In the end of this test of mine, I chose to stay with one, the Hilton chain. The two reasons that made up my mind 1) The way they treated me because of the gold status. 2) The Marriott hotels were a hit and miss scenario all time with them. Sometimes I stayed at a real nice hotel, other times it felt like I was staying at a Motel...  I never stayed at a Hilton Hotel and felt that until this last stay. I can't put my finger on it, it could have been the area the Hotel was in or the feel of a nice hotel that was a little worn out and needs a little updating. The lack of guests during my stay that whole week gave me a hint that maybe the money is just not there to put into it. I will be going back to Pasadena, TX many times in the future due to the fact our office is located there, but I think I’m going to scout around for a different Hilton Hotel, even if it’s a little out of the way.   Faithfully, J.C. RojasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r168806609-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>168806609</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Hampton Inn Deer Park</t>
+  </si>
+  <si>
+    <t>Visiting oil refinery facilities and rental customers in the Houston/La Porte, TX area, this hotel is very clean, comfortable and quiet.  Only a few minutes from all local industries and 20 minutes to Kemah Beach on the Gulf.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visiting oil refinery facilities and rental customers in the Houston/La Porte, TX area, this hotel is very clean, comfortable and quiet.  Only a few minutes from all local industries and 20 minutes to Kemah Beach on the Gulf.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r159255563-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>159255563</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Don't excpect wake up calls of nice receptin</t>
+  </si>
+  <si>
+    <t>Requested a wake up call...did not receive it.  The receptionist was unresponsive when I checked out and make it to seem like I did not request a wake up call.  Why whould I make this up....and to think my company paid for 8 rooms at this hotel and even reserved a conference room....won't be staying here again...my co worker had some issues too regarding her wake up call.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Requested a wake up call...did not receive it.  The receptionist was unresponsive when I checked out and make it to seem like I did not request a wake up call.  Why whould I make this up....and to think my company paid for 8 rooms at this hotel and even reserved a conference room....won't be staying here again...my co worker had some issues too regarding her wake up call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r156543307-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>156543307</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Going downhill</t>
+  </si>
+  <si>
+    <t>I have been staying at this Hampton Inn for one to two weeks a year for business. I was pleased for the first few years but have noticed a steady decline. The internet is neck and neck with dial up. Sure there are lots of guests but a hotel chain like Hampton needs to have this area covered. Breakfast was usually great, but this stay the powdered scrambled egg product really did it for me. Seriously, how hard is it to make scrambled eggs? Then the receptionist says we dont have an oven, only a stove. Really, isnt that all you need to make scrambled eggs? And finally the fitness center (one can barely call it that), the air is off 90% of the time and it is stifling in there. When I asked the receptionist to turn it on she said only the maintenance man can do that...really? Get it fixed Hampton.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying at this Hampton Inn for one to two weeks a year for business. I was pleased for the first few years but have noticed a steady decline. The internet is neck and neck with dial up. Sure there are lots of guests but a hotel chain like Hampton needs to have this area covered. Breakfast was usually great, but this stay the powdered scrambled egg product really did it for me. Seriously, how hard is it to make scrambled eggs? Then the receptionist says we dont have an oven, only a stove. Really, isnt that all you need to make scrambled eggs? And finally the fitness center (one can barely call it that), the air is off 90% of the time and it is stifling in there. When I asked the receptionist to turn it on she said only the maintenance man can do that...really? Get it fixed Hampton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r155945212-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>155945212</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in March 2013 while in town for business at the Shell Oil Refinery.  The hotel is out of the way and about 10 minutes from where I was working but it was an easy drive and not difficult to find.
+The hotel is in excellent condition.  I arrived around 3PM and got a 1st floor room that was excellent.  It was a huge room with 2 queen beds.  Everything was in its proper place.  
+I didn't like the ventilation.  It was difficult to control the room temperature and the ceiling fan in the sitting area was louder than I liked.  
+The Internet was spotty.  Sometimes it worked great and then other times, I had to break out my air card.  
+There are many service options in the area but not too many sit-down restaurants.  It appeared to be mostly fast food with a few barbeque and speciality foods thrown in.
+The breakfast area was pretty loud the morning I was there but I don't know if that was because a large group was there or not, but I could hear them all the way down the hall.  
+Otherwise, this is an excellent hotel and an excellent place to stay if in town.  It's far from downtown Houston and other areas so if you want easy access to major city amenities, this isn't the hotel for you.  But if you want peace and quiet, then this...I stayed at this hotel in March 2013 while in town for business at the Shell Oil Refinery.  The hotel is out of the way and about 10 minutes from where I was working but it was an easy drive and not difficult to find.The hotel is in excellent condition.  I arrived around 3PM and got a 1st floor room that was excellent.  It was a huge room with 2 queen beds.  Everything was in its proper place.  I didn't like the ventilation.  It was difficult to control the room temperature and the ceiling fan in the sitting area was louder than I liked.  The Internet was spotty.  Sometimes it worked great and then other times, I had to break out my air card.  There are many service options in the area but not too many sit-down restaurants.  It appeared to be mostly fast food with a few barbeque and speciality foods thrown in.The breakfast area was pretty loud the morning I was there but I don't know if that was because a large group was there or not, but I could hear them all the way down the hall.  Otherwise, this is an excellent hotel and an excellent place to stay if in town.  It's far from downtown Houston and other areas so if you want easy access to major city amenities, this isn't the hotel for you.  But if you want peace and quiet, then this is the hotel for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in March 2013 while in town for business at the Shell Oil Refinery.  The hotel is out of the way and about 10 minutes from where I was working but it was an easy drive and not difficult to find.
+The hotel is in excellent condition.  I arrived around 3PM and got a 1st floor room that was excellent.  It was a huge room with 2 queen beds.  Everything was in its proper place.  
+I didn't like the ventilation.  It was difficult to control the room temperature and the ceiling fan in the sitting area was louder than I liked.  
+The Internet was spotty.  Sometimes it worked great and then other times, I had to break out my air card.  
+There are many service options in the area but not too many sit-down restaurants.  It appeared to be mostly fast food with a few barbeque and speciality foods thrown in.
+The breakfast area was pretty loud the morning I was there but I don't know if that was because a large group was there or not, but I could hear them all the way down the hall.  
+Otherwise, this is an excellent hotel and an excellent place to stay if in town.  It's far from downtown Houston and other areas so if you want easy access to major city amenities, this isn't the hotel for you.  But if you want peace and quiet, then this...I stayed at this hotel in March 2013 while in town for business at the Shell Oil Refinery.  The hotel is out of the way and about 10 minutes from where I was working but it was an easy drive and not difficult to find.The hotel is in excellent condition.  I arrived around 3PM and got a 1st floor room that was excellent.  It was a huge room with 2 queen beds.  Everything was in its proper place.  I didn't like the ventilation.  It was difficult to control the room temperature and the ceiling fan in the sitting area was louder than I liked.  The Internet was spotty.  Sometimes it worked great and then other times, I had to break out my air card.  There are many service options in the area but not too many sit-down restaurants.  It appeared to be mostly fast food with a few barbeque and speciality foods thrown in.The breakfast area was pretty loud the morning I was there but I don't know if that was because a large group was there or not, but I could hear them all the way down the hall.  Otherwise, this is an excellent hotel and an excellent place to stay if in town.  It's far from downtown Houston and other areas so if you want easy access to major city amenities, this isn't the hotel for you.  But if you want peace and quiet, then this is the hotel for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r142287341-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>142287341</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>although this is the 1st hampton inn, i've ever stayed at, I cant imagine a nicer, more well kept and friendlier facility around.I stayed there with a co-coworker (had our own rooms) from sept 30-oct 6 2012very centrally located and convenient to EVERYTHING......got a great night's sleep every day, very quiet......lost my room key on day 4, asked the front desk clerk, for another, she said no problem and within 20 seconds, I was on my way to my room...........great breakfast buffet, that got our day off to a nice startwould highly recommend this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2012</t>
+  </si>
+  <si>
+    <t>although this is the 1st hampton inn, i've ever stayed at, I cant imagine a nicer, more well kept and friendlier facility around.I stayed there with a co-coworker (had our own rooms) from sept 30-oct 6 2012very centrally located and convenient to EVERYTHING......got a great night's sleep every day, very quiet......lost my room key on day 4, asked the front desk clerk, for another, she said no problem and within 20 seconds, I was on my way to my room...........great breakfast buffet, that got our day off to a nice startwould highly recommend this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r139947629-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>139947629</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Typical Hampton - but the slow internet kills it</t>
+  </si>
+  <si>
+    <t>The hotel isn't in that bad of shape, but the location is terrible. Very strong smells in the hallways of cleaning solution. The capper was the extremely slow internet service, which is unacceptable in 2012. Since most Hamptons have an equal start, I have to say I'll never stay at this one again, since getting work done is nearly impossible. I'll go to the newer, nicer Holiday Inn down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>The hotel isn't in that bad of shape, but the location is terrible. Very strong smells in the hallways of cleaning solution. The capper was the extremely slow internet service, which is unacceptable in 2012. Since most Hamptons have an equal start, I have to say I'll never stay at this one again, since getting work done is nearly impossible. I'll go to the newer, nicer Holiday Inn down the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r131693373-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>131693373</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Not up to Hampton standards</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and that was a good thing.  The room however didn't have hot water the morning we checked out so I didn't get a shower.  The carpet was so sticky you had to wear socks to keep your feet from getting black.  The breakfast was ok if you can eat microwave food.  They had fruit but it didn't seen to fresh.  The price would have been great if I had hot water!  The curtains are too short and open at the top and it the outside lights were coming through the window!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Jaime A, General Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and that was a good thing.  The room however didn't have hot water the morning we checked out so I didn't get a shower.  The carpet was so sticky you had to wear socks to keep your feet from getting black.  The breakfast was ok if you can eat microwave food.  They had fruit but it didn't seen to fresh.  The price would have been great if I had hot water!  The curtains are too short and open at the top and it the outside lights were coming through the window!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r114997191-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>114997191</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>Nice Rooms, Poor Customer Service</t>
+  </si>
+  <si>
+    <t>My family requested a room online and spoke on the phone with this hotel property to arrange the details of our stay.  The computer system would not allow 5 people (2 of which were young children) to stay in one room.  The front desk attendant said she would put us in a room with a roll away and everything would be fine.  The day of our stay I phoned the hotel to verify that our reservations were correct and the arrangements were noted on our account.  This time the front desk person I spoke with said this could not be done and we need to book another room at full price to accommodate one of our party.  I explained that because we were traveling with children we would like to be together and that I had spoken with the hotel previously before making the reservation and arrangements had been made.  Over the next few hours I had several calls from the hotel, including the general manager, explaining that I would need to purchase another room.  
+I could not cancel the reservation the day of the stay and finally did end reserving an additional room (they did reduce the price to half the posted amount) and we had a pleasant stay in the two adjoining rooms.  It is poor customer service to tell your clients one thing and then require more money to actually get to stay at the hotel.  I...My family requested a room online and spoke on the phone with this hotel property to arrange the details of our stay.  The computer system would not allow 5 people (2 of which were young children) to stay in one room.  The front desk attendant said she would put us in a room with a roll away and everything would be fine.  The day of our stay I phoned the hotel to verify that our reservations were correct and the arrangements were noted on our account.  This time the front desk person I spoke with said this could not be done and we need to book another room at full price to accommodate one of our party.  I explained that because we were traveling with children we would like to be together and that I had spoken with the hotel previously before making the reservation and arrangements had been made.  Over the next few hours I had several calls from the hotel, including the general manager, explaining that I would need to purchase another room.  I could not cancel the reservation the day of the stay and finally did end reserving an additional room (they did reduce the price to half the posted amount) and we had a pleasant stay in the two adjoining rooms.  It is poor customer service to tell your clients one thing and then require more money to actually get to stay at the hotel.  I had no problem with their policy, but that the employee did not explain this at the start of our process.  Then, at the hotel, there were several other large families that appeared to be staying in single rooms.  I would not choose to stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Jaime A, Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded August 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2011</t>
+  </si>
+  <si>
+    <t>My family requested a room online and spoke on the phone with this hotel property to arrange the details of our stay.  The computer system would not allow 5 people (2 of which were young children) to stay in one room.  The front desk attendant said she would put us in a room with a roll away and everything would be fine.  The day of our stay I phoned the hotel to verify that our reservations were correct and the arrangements were noted on our account.  This time the front desk person I spoke with said this could not be done and we need to book another room at full price to accommodate one of our party.  I explained that because we were traveling with children we would like to be together and that I had spoken with the hotel previously before making the reservation and arrangements had been made.  Over the next few hours I had several calls from the hotel, including the general manager, explaining that I would need to purchase another room.  
+I could not cancel the reservation the day of the stay and finally did end reserving an additional room (they did reduce the price to half the posted amount) and we had a pleasant stay in the two adjoining rooms.  It is poor customer service to tell your clients one thing and then require more money to actually get to stay at the hotel.  I...My family requested a room online and spoke on the phone with this hotel property to arrange the details of our stay.  The computer system would not allow 5 people (2 of which were young children) to stay in one room.  The front desk attendant said she would put us in a room with a roll away and everything would be fine.  The day of our stay I phoned the hotel to verify that our reservations were correct and the arrangements were noted on our account.  This time the front desk person I spoke with said this could not be done and we need to book another room at full price to accommodate one of our party.  I explained that because we were traveling with children we would like to be together and that I had spoken with the hotel previously before making the reservation and arrangements had been made.  Over the next few hours I had several calls from the hotel, including the general manager, explaining that I would need to purchase another room.  I could not cancel the reservation the day of the stay and finally did end reserving an additional room (they did reduce the price to half the posted amount) and we had a pleasant stay in the two adjoining rooms.  It is poor customer service to tell your clients one thing and then require more money to actually get to stay at the hotel.  I had no problem with their policy, but that the employee did not explain this at the start of our process.  Then, at the hotel, there were several other large families that appeared to be staying in single rooms.  I would not choose to stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r114720829-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>114720829</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>Decent hotel with horrible service</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel at 9 PM on Friday night had to wait for 2 hours for the front desk to assign a our rooms. The room that I was assigned was already taken . I went back to the desk with great difficulty she assigned two rooms. The coffee was cold when we arrived.  The complementary breakfast is warmed up frozen food.  The rooms were okay but the service was awful. Now I know why they were not that many customers.I was a little disappointed with total lack of  customer service you had to ask multiple times before you got anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>David D, Guest Relations Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel at 9 PM on Friday night had to wait for 2 hours for the front desk to assign a our rooms. The room that I was assigned was already taken . I went back to the desk with great difficulty she assigned two rooms. The coffee was cold when we arrived.  The complementary breakfast is warmed up frozen food.  The rooms were okay but the service was awful. Now I know why they were not that many customers.I was a little disappointed with total lack of  customer service you had to ask multiple times before you got anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r82636472-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>82636472</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>Very Nice Well Priced Busines Hotel</t>
+  </si>
+  <si>
+    <t>The housekeeping and office staff did a very good job taking care of our two dozen business travelers this week. The rooms were clean and there was plenty of snacks available to pertake of during our sessions at the hotel. Would strongly suggest for business meetings on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>The housekeeping and office staff did a very good job taking care of our two dozen business travelers this week. The rooms were clean and there was plenty of snacks available to pertake of during our sessions at the hotel. Would strongly suggest for business meetings on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r22043561-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>22043561</t>
+  </si>
+  <si>
+    <t>11/20/2008</t>
+  </si>
+  <si>
+    <t>A little rough around the edges from Hurricane Ike</t>
+  </si>
+  <si>
+    <t>A little below the normal standards for a Hampton. Cabinets are being rebuilt in dining area, some sheetrock damage in my room. A torn up dump next door, and occupied by rough looking characters. I was put in handicapped room which had anemic water pressure and very little hot water at shower head. Otherwise, room was in good condition. Very convenient to work locations in Pasadena, Deer Park, Baytown, etc. Several places to eat nearby, but few chains. Antonios is good, but no liquor license. Brown bag ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>HAMPDP, Manager at Hampton Inn Houston Deer Park Ship Area, responded to this reviewResponded October 7, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2009</t>
+  </si>
+  <si>
+    <t>A little below the normal standards for a Hampton. Cabinets are being rebuilt in dining area, some sheetrock damage in my room. A torn up dump next door, and occupied by rough looking characters. I was put in handicapped room which had anemic water pressure and very little hot water at shower head. Otherwise, room was in good condition. Very convenient to work locations in Pasadena, Deer Park, Baytown, etc. Several places to eat nearby, but few chains. Antonios is good, but no liquor license. Brown bag ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r3688935-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>3688935</t>
+  </si>
+  <si>
+    <t>07/19/2005</t>
+  </si>
+  <si>
+    <t>Very nice Hampton Inn</t>
+  </si>
+  <si>
+    <t>If you want a quite place to stay try this hotel. It is about 20 minutes to downtown Houston and 30 minutes to Galveston. The hotel is very clean and the staff is friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you want a quite place to stay try this hotel. It is about 20 minutes to downtown Houston and 30 minutes to Galveston. The hotel is very clean and the staff is friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d277876-r3488766-Hampton_Inn_Houston_Deer_Park_Ship_Area-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>3488766</t>
+  </si>
+  <si>
+    <t>05/19/2005</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel while visiting relatives in Deer Park.  The hotel is located within 2 miles of the 225.  It was built 2 yrs ago, so everything is bright and clean.  My wife especially liked the bowed shower curtain fixture - which she's seen on HGTV.  It was very quiet, and they had a great complimentary hot buffet.Overall a very nice and clean place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel while visiting relatives in Deer Park.  The hotel is located within 2 miles of the 225.  It was built 2 yrs ago, so everything is bright and clean.  My wife especially liked the bowed shower curtain fixture - which she's seen on HGTV.  It was very quiet, and they had a great complimentary hot buffet.Overall a very nice and clean place to stay!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2931,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2963,6922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>283</v>
+      </c>
+      <c r="X31" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>298</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>170</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>330</v>
+      </c>
+      <c r="X36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>334</v>
+      </c>
+      <c r="J37" t="s">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>336</v>
+      </c>
+      <c r="L37" t="s">
+        <v>337</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>338</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>339</v>
+      </c>
+      <c r="X37" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s">
+        <v>346</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>347</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>348</v>
+      </c>
+      <c r="X38" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>356</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>365</v>
+      </c>
+      <c r="X40" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>387</v>
+      </c>
+      <c r="X43" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" t="s">
+        <v>394</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>395</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>396</v>
+      </c>
+      <c r="X44" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>404</v>
+      </c>
+      <c r="O46" t="s">
+        <v>170</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>413</v>
+      </c>
+      <c r="X46" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>417</v>
+      </c>
+      <c r="J47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s">
+        <v>420</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>421</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>422</v>
+      </c>
+      <c r="X47" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" t="s">
+        <v>418</v>
+      </c>
+      <c r="K48" t="s">
+        <v>427</v>
+      </c>
+      <c r="L48" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>421</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>422</v>
+      </c>
+      <c r="X48" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L49" t="s">
+        <v>434</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>170</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>435</v>
+      </c>
+      <c r="X49" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>439</v>
+      </c>
+      <c r="J50" t="s">
+        <v>440</v>
+      </c>
+      <c r="K50" t="s">
+        <v>441</v>
+      </c>
+      <c r="L50" t="s">
+        <v>442</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>443</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>444</v>
+      </c>
+      <c r="X50" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s">
+        <v>450</v>
+      </c>
+      <c r="L51" t="s">
+        <v>451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>453</v>
+      </c>
+      <c r="X51" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>452</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>463</v>
+      </c>
+      <c r="J53" t="s">
+        <v>464</v>
+      </c>
+      <c r="K53" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>467</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>469</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>470</v>
+      </c>
+      <c r="J54" t="s">
+        <v>471</v>
+      </c>
+      <c r="K54" t="s">
+        <v>472</v>
+      </c>
+      <c r="L54" t="s">
+        <v>473</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>467</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>474</v>
+      </c>
+      <c r="X54" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>474</v>
+      </c>
+      <c r="X55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>487</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>487</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>488</v>
+      </c>
+      <c r="X57" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" t="s">
+        <v>501</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>502</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>488</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>504</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>505</v>
+      </c>
+      <c r="J59" t="s">
+        <v>506</v>
+      </c>
+      <c r="K59" t="s">
+        <v>507</v>
+      </c>
+      <c r="L59" t="s">
+        <v>508</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>509</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" t="s">
+        <v>514</v>
+      </c>
+      <c r="K60" t="s">
+        <v>515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>502</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>509</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K61" t="s">
+        <v>521</v>
+      </c>
+      <c r="L61" t="s">
+        <v>522</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>523</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>524</v>
+      </c>
+      <c r="X61" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>527</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J62" t="s">
+        <v>529</v>
+      </c>
+      <c r="K62" t="s">
+        <v>530</v>
+      </c>
+      <c r="L62" t="s">
+        <v>531</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>532</v>
+      </c>
+      <c r="O62" t="s">
+        <v>170</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>533</v>
+      </c>
+      <c r="X62" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>536</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>537</v>
+      </c>
+      <c r="J63" t="s">
+        <v>538</v>
+      </c>
+      <c r="K63" t="s">
+        <v>539</v>
+      </c>
+      <c r="L63" t="s">
+        <v>540</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>523</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>541</v>
+      </c>
+      <c r="X63" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>544</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>545</v>
+      </c>
+      <c r="J64" t="s">
+        <v>546</v>
+      </c>
+      <c r="K64" t="s">
+        <v>547</v>
+      </c>
+      <c r="L64" t="s">
+        <v>548</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>523</v>
+      </c>
+      <c r="O64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>549</v>
+      </c>
+      <c r="X64" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>552</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>553</v>
+      </c>
+      <c r="J65" t="s">
+        <v>554</v>
+      </c>
+      <c r="K65" t="s">
+        <v>555</v>
+      </c>
+      <c r="L65" t="s">
+        <v>556</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>523</v>
+      </c>
+      <c r="O65" t="s">
+        <v>170</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>557</v>
+      </c>
+      <c r="X65" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>560</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>561</v>
+      </c>
+      <c r="J66" t="s">
+        <v>562</v>
+      </c>
+      <c r="K66" t="s">
+        <v>563</v>
+      </c>
+      <c r="L66" t="s">
+        <v>564</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>565</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>566</v>
+      </c>
+      <c r="X66" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>570</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>574</v>
+      </c>
+      <c r="X67" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>578</v>
+      </c>
+      <c r="J68" t="s">
+        <v>579</v>
+      </c>
+      <c r="K68" t="s">
+        <v>580</v>
+      </c>
+      <c r="L68" t="s">
+        <v>581</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>582</v>
+      </c>
+      <c r="X68" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>586</v>
+      </c>
+      <c r="J69" t="s">
+        <v>587</v>
+      </c>
+      <c r="K69" t="s">
+        <v>588</v>
+      </c>
+      <c r="L69" t="s">
+        <v>589</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>590</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>582</v>
+      </c>
+      <c r="X69" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>593</v>
+      </c>
+      <c r="J70" t="s">
+        <v>594</v>
+      </c>
+      <c r="K70" t="s">
+        <v>595</v>
+      </c>
+      <c r="L70" t="s">
+        <v>596</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>597</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>598</v>
+      </c>
+      <c r="X70" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>606</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>607</v>
+      </c>
+      <c r="X71" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s">
+        <v>612</v>
+      </c>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>614</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>606</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>615</v>
+      </c>
+      <c r="X72" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+      <c r="L73" t="s">
+        <v>622</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>606</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>607</v>
+      </c>
+      <c r="X73" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" t="s">
+        <v>626</v>
+      </c>
+      <c r="K74" t="s">
+        <v>627</v>
+      </c>
+      <c r="L74" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>629</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>630</v>
+      </c>
+      <c r="X74" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>633</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>634</v>
+      </c>
+      <c r="J75" t="s">
+        <v>635</v>
+      </c>
+      <c r="K75" t="s">
+        <v>636</v>
+      </c>
+      <c r="L75" t="s">
+        <v>637</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>629</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>638</v>
+      </c>
+      <c r="X75" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>641</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>642</v>
+      </c>
+      <c r="J76" t="s">
+        <v>643</v>
+      </c>
+      <c r="K76" t="s">
+        <v>644</v>
+      </c>
+      <c r="L76" t="s">
+        <v>645</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>629</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>638</v>
+      </c>
+      <c r="X76" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>648</v>
+      </c>
+      <c r="J77" t="s">
+        <v>649</v>
+      </c>
+      <c r="K77" t="s">
+        <v>650</v>
+      </c>
+      <c r="L77" t="s">
+        <v>651</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>652</v>
+      </c>
+      <c r="X77" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>655</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>656</v>
+      </c>
+      <c r="J78" t="s">
+        <v>657</v>
+      </c>
+      <c r="K78" t="s">
+        <v>658</v>
+      </c>
+      <c r="L78" t="s">
+        <v>659</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>597</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>652</v>
+      </c>
+      <c r="X78" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>661</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>662</v>
+      </c>
+      <c r="J79" t="s">
+        <v>663</v>
+      </c>
+      <c r="K79" t="s">
+        <v>664</v>
+      </c>
+      <c r="L79" t="s">
+        <v>665</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>597</v>
+      </c>
+      <c r="O79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>666</v>
+      </c>
+      <c r="X79" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>669</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>670</v>
+      </c>
+      <c r="J80" t="s">
+        <v>671</v>
+      </c>
+      <c r="K80" t="s">
+        <v>672</v>
+      </c>
+      <c r="L80" t="s">
+        <v>673</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>674</v>
+      </c>
+      <c r="O80" t="s">
+        <v>170</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>675</v>
+      </c>
+      <c r="X80" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>678</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>679</v>
+      </c>
+      <c r="J81" t="s">
+        <v>680</v>
+      </c>
+      <c r="K81" t="s">
+        <v>681</v>
+      </c>
+      <c r="L81" t="s">
+        <v>682</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>683</v>
+      </c>
+      <c r="O81" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>684</v>
+      </c>
+      <c r="X81" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>687</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>688</v>
+      </c>
+      <c r="J82" t="s">
+        <v>689</v>
+      </c>
+      <c r="K82" t="s">
+        <v>690</v>
+      </c>
+      <c r="L82" t="s">
+        <v>691</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>692</v>
+      </c>
+      <c r="O82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>693</v>
+      </c>
+      <c r="X82" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>696</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>697</v>
+      </c>
+      <c r="J83" t="s">
+        <v>698</v>
+      </c>
+      <c r="K83" t="s">
+        <v>699</v>
+      </c>
+      <c r="L83" t="s">
+        <v>700</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>692</v>
+      </c>
+      <c r="O83" t="s">
+        <v>170</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>701</v>
+      </c>
+      <c r="X83" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>704</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>705</v>
+      </c>
+      <c r="J84" t="s">
+        <v>706</v>
+      </c>
+      <c r="K84" t="s">
+        <v>194</v>
+      </c>
+      <c r="L84" t="s">
+        <v>707</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>708</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>701</v>
+      </c>
+      <c r="X84" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>710</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>711</v>
+      </c>
+      <c r="J85" t="s">
+        <v>712</v>
+      </c>
+      <c r="K85" t="s">
+        <v>713</v>
+      </c>
+      <c r="L85" t="s">
+        <v>714</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>708</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>715</v>
+      </c>
+      <c r="X85" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>718</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>719</v>
+      </c>
+      <c r="J86" t="s">
+        <v>720</v>
+      </c>
+      <c r="K86" t="s">
+        <v>721</v>
+      </c>
+      <c r="L86" t="s">
+        <v>722</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>723</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>724</v>
+      </c>
+      <c r="X86" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>727</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>728</v>
+      </c>
+      <c r="J87" t="s">
+        <v>729</v>
+      </c>
+      <c r="K87" t="s">
+        <v>730</v>
+      </c>
+      <c r="L87" t="s">
+        <v>731</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>732</v>
+      </c>
+      <c r="O87" t="s">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>724</v>
+      </c>
+      <c r="X87" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>734</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>735</v>
+      </c>
+      <c r="J88" t="s">
+        <v>736</v>
+      </c>
+      <c r="K88" t="s">
+        <v>737</v>
+      </c>
+      <c r="L88" t="s">
+        <v>738</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>732</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>724</v>
+      </c>
+      <c r="X88" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>740</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>741</v>
+      </c>
+      <c r="J89" t="s">
+        <v>742</v>
+      </c>
+      <c r="K89" t="s">
+        <v>743</v>
+      </c>
+      <c r="L89" t="s">
+        <v>744</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>745</v>
+      </c>
+      <c r="O89" t="s">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>746</v>
+      </c>
+      <c r="X89" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>749</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>750</v>
+      </c>
+      <c r="J90" t="s">
+        <v>751</v>
+      </c>
+      <c r="K90" t="s">
+        <v>752</v>
+      </c>
+      <c r="L90" t="s">
+        <v>753</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>745</v>
+      </c>
+      <c r="O90" t="s">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>754</v>
+      </c>
+      <c r="X90" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>757</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>758</v>
+      </c>
+      <c r="J91" t="s">
+        <v>759</v>
+      </c>
+      <c r="K91" t="s">
+        <v>760</v>
+      </c>
+      <c r="L91" t="s">
+        <v>761</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>762</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>746</v>
+      </c>
+      <c r="X91" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>764</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>765</v>
+      </c>
+      <c r="J92" t="s">
+        <v>766</v>
+      </c>
+      <c r="K92" t="s">
+        <v>767</v>
+      </c>
+      <c r="L92" t="s">
+        <v>768</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>769</v>
+      </c>
+      <c r="O92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>770</v>
+      </c>
+      <c r="X92" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>773</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>774</v>
+      </c>
+      <c r="J93" t="s">
+        <v>775</v>
+      </c>
+      <c r="K93" t="s">
+        <v>776</v>
+      </c>
+      <c r="L93" t="s">
+        <v>777</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>778</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>779</v>
+      </c>
+      <c r="X93" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>782</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>783</v>
+      </c>
+      <c r="J94" t="s">
+        <v>784</v>
+      </c>
+      <c r="K94" t="s">
+        <v>785</v>
+      </c>
+      <c r="L94" t="s">
+        <v>786</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>787</v>
+      </c>
+      <c r="O94" t="s">
+        <v>80</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>788</v>
+      </c>
+      <c r="X94" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>791</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>792</v>
+      </c>
+      <c r="J95" t="s">
+        <v>793</v>
+      </c>
+      <c r="K95" t="s">
+        <v>794</v>
+      </c>
+      <c r="L95" t="s">
+        <v>795</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>796</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>797</v>
+      </c>
+      <c r="X95" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>800</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>801</v>
+      </c>
+      <c r="J96" t="s">
+        <v>802</v>
+      </c>
+      <c r="K96" t="s">
+        <v>803</v>
+      </c>
+      <c r="L96" t="s">
+        <v>804</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>796</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>805</v>
+      </c>
+      <c r="X96" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>808</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>809</v>
+      </c>
+      <c r="J97" t="s">
+        <v>810</v>
+      </c>
+      <c r="K97" t="s">
+        <v>811</v>
+      </c>
+      <c r="L97" t="s">
+        <v>812</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>813</v>
+      </c>
+      <c r="O97" t="s">
+        <v>70</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>805</v>
+      </c>
+      <c r="X97" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>815</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>816</v>
+      </c>
+      <c r="J98" t="s">
+        <v>817</v>
+      </c>
+      <c r="K98" t="s">
+        <v>818</v>
+      </c>
+      <c r="L98" t="s">
+        <v>819</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>820</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>821</v>
+      </c>
+      <c r="X98" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>824</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>825</v>
+      </c>
+      <c r="J99" t="s">
+        <v>826</v>
+      </c>
+      <c r="K99" t="s">
+        <v>827</v>
+      </c>
+      <c r="L99" t="s">
+        <v>828</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>805</v>
+      </c>
+      <c r="X99" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>51446</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>830</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>831</v>
+      </c>
+      <c r="J100" t="s">
+        <v>832</v>
+      </c>
+      <c r="K100" t="s">
+        <v>833</v>
+      </c>
+      <c r="L100" t="s">
+        <v>834</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>805</v>
+      </c>
+      <c r="X100" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
